--- a/template Excel/Accountting/Payables.xlsx
+++ b/template Excel/Accountting/Payables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FA4FB-EADF-4D53-B9A9-871C48C6E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAA223-8983-49DB-8364-5F15CC2AF905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C555589-2AE4-43C2-A76D-8277602D6052}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>PayablesId</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>DueDate</t>
+  </si>
+  <si>
+    <t>PayableId</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,21 +452,21 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/template Excel/Accountting/Payables.xlsx
+++ b/template Excel/Accountting/Payables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAA223-8983-49DB-8364-5F15CC2AF905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EE098-B9FC-435C-A404-E75C2C3797E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C555589-2AE4-43C2-A76D-8277602D6052}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3C555589-2AE4-43C2-A76D-8277602D6052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -51,13 +51,22 @@
   </si>
   <si>
     <t>PayableId</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +81,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -104,6 +119,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E66CDC3-F30A-4DBE-A590-9FE19F615938}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +470,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,13 +486,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>45505</v>
+        <v>44927</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -483,15 +504,18 @@
         <v>1300</v>
       </c>
       <c r="E2" s="3">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44927</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>45506</v>
+        <v>44940</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -500,15 +524,18 @@
         <v>1600</v>
       </c>
       <c r="E3" s="3">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44940</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>45507</v>
+        <v>44953</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
@@ -517,15 +544,18 @@
         <v>800</v>
       </c>
       <c r="E4" s="3">
-        <v>45514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44953</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>45508</v>
+        <v>44966</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -534,15 +564,18 @@
         <v>2300</v>
       </c>
       <c r="E5" s="3">
-        <v>45522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44966</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>45509</v>
+        <v>44979</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -551,15 +584,18 @@
         <v>1000</v>
       </c>
       <c r="E6" s="3">
-        <v>45529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44979</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>45510</v>
+        <v>44992</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -568,15 +604,18 @@
         <v>1900</v>
       </c>
       <c r="E7" s="3">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44992</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>45511</v>
+        <v>45005</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
@@ -585,15 +624,18 @@
         <v>1400</v>
       </c>
       <c r="E8" s="3">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45005</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>45512</v>
+        <v>45018</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
@@ -602,15 +644,18 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45018</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>45513</v>
+        <v>45031</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
@@ -619,15 +664,18 @@
         <v>2400</v>
       </c>
       <c r="E10" s="3">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45031</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>45514</v>
+        <v>45044</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -636,7 +684,10 @@
         <v>1200</v>
       </c>
       <c r="E11" s="3">
-        <v>45536</v>
+        <v>45044</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
